--- a/各地组播源汇总/黑龙江.xlsx
+++ b/各地组播源汇总/黑龙江.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="移动组播" sheetId="1" r:id="rId1"/>
-    <sheet name="可用IP地址" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="联通组播" sheetId="4" r:id="rId2"/>
+    <sheet name="可用IP地址" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">联通组播!$A$1:$E$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">移动组播!$A$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
   <si>
     <t>移动组播</t>
   </si>
@@ -105,6 +107,80 @@
   </si>
   <si>
     <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226298/index.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通组播</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rtp/229.58.190.14:5000</t>
+  </si>
+  <si>
+    <t>/rtp/229.58.190.126:5000</t>
+  </si>
+  <si>
+    <t>/rtp/229.58.190.16:5000</t>
+  </si>
+  <si>
+    <t>/rtp/229.58.190.122:5000</t>
+  </si>
+  <si>
+    <t>/rtp/229.58.190.116:5000</t>
+  </si>
+  <si>
+    <t>/rtp/229.58.190.39:5000</t>
+  </si>
+  <si>
+    <t>/rtp/229.58.190.124:5000</t>
+  </si>
+  <si>
+    <t>/rtp/229.58.190.123:5000</t>
+  </si>
+  <si>
+    <t>/rtp/229.58.190.121:5000</t>
+  </si>
+  <si>
+    <t>齐齐哈尔新闻</t>
+  </si>
+  <si>
+    <t>/rtp/229.58.190.164:5000</t>
+  </si>
+  <si>
+    <t>齐齐哈尔经济</t>
+  </si>
+  <si>
+    <t>/rtp/229.58.190.192:5000</t>
+  </si>
+  <si>
+    <t>齐齐哈尔公共</t>
+  </si>
+  <si>
+    <t>/rtp/229.58.190.4:5000</t>
+  </si>
+  <si>
+    <t>佳木斯新闻</t>
+  </si>
+  <si>
+    <t>/rtp/229.58.190.163:5000</t>
+  </si>
+  <si>
+    <t>黑龙江农业科教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江新闻法治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -695,28 +773,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E14"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -727,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
